--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -79,80 +79,80 @@
     <t>蒙层没有</t>
   </si>
   <si>
-    <t>未解决</t>
-  </si>
-  <si>
     <t>.main 的宽度改成width：550px
 margin-left: -275px;</t>
+  </si>
+  <si>
+    <t>&lt;link rel="icon" href="../../css/img/logo.png" type="image/x-icon"&gt;
+图片改掉</t>
+  </si>
+  <si>
+    <t>立即注册按钮没有加效果</t>
+  </si>
+  <si>
+    <t>input框没有加效果</t>
+  </si>
+  <si>
+    <t>记住密码和忘记密码和checkbox不在一条直线上</t>
+  </si>
+  <si>
+    <t>&gt;&gt;忘记密码改成忘记密码&gt;&gt;</t>
+  </si>
+  <si>
+    <t>第三方登录效果不对，参考老版登录注册页面</t>
+  </si>
+  <si>
+    <t>切换到登录模块，内容突出来了</t>
+  </si>
+  <si>
+    <t>© 2016 苏州嗨吼网络科技有限公司的版权标志改成：&amp;copy;</t>
+  </si>
+  <si>
+    <t>common1.css改成common.css</t>
+  </si>
+  <si>
+    <t>css样式</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>font-family: FZLTHJW;放到body样式里面</t>
+  </si>
+  <si>
+    <t>.hide {
+ display: none
+}去掉，common.css里面有display的样式</t>
+  </si>
+  <si>
+    <t>多余的空格去掉</t>
+  </si>
+  <si>
+    <t>opacity: 100%;改成opacity: 1;</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>登录注册标签和内容块有间隙，没有加效果
     transition: all .5s ease 0s;
     -webkit-transition: all .5s ease 0s;</t>
-  </si>
-  <si>
-    <t>&lt;link rel="icon" href="../../css/img/logo.png" type="image/x-icon"&gt;
-图片改掉</t>
-  </si>
-  <si>
-    <t>立即注册按钮没有加效果</t>
-  </si>
-  <si>
-    <t>input框没有加效果</t>
-  </si>
-  <si>
-    <t>记住密码和忘记密码和checkbox不在一条直线上</t>
-  </si>
-  <si>
-    <t>&gt;&gt;忘记密码改成忘记密码&gt;&gt;</t>
-  </si>
-  <si>
-    <t>第三方登录效果不对，参考老版登录注册页面</t>
-  </si>
-  <si>
-    <t>切换到登录模块，内容突出来了</t>
-  </si>
-  <si>
-    <t>© 2016 苏州嗨吼网络科技有限公司的版权标志改成：&amp;copy;</t>
-  </si>
-  <si>
-    <t>common1.css改成common.css</t>
-  </si>
-  <si>
-    <t>css样式</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>css</t>
-  </si>
-  <si>
-    <t>font-family: FZLTHJW;放到body样式里面</t>
-  </si>
-  <si>
-    <t>.hide {
- display: none
-}去掉，common.css里面有display的样式</t>
-  </si>
-  <si>
-    <t>多余的空格去掉</t>
-  </si>
-  <si>
-    <t>opacity: 100%;改成opacity: 1;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>写在js里控制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,158 +166,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,13 +187,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,194 +203,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -558,255 +227,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,58 +270,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1185,12 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1206,7 +591,7 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1247,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:13">
+    <row r="2" spans="1:16" ht="27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1275,14 +660,16 @@
       <c r="I2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="6">
+        <v>42700</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" ht="27" spans="1:13">
+    <row r="3" spans="1:16" ht="27">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1308,16 +695,18 @@
         <v>42700</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="J3" s="12">
+        <v>42700</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M3" s="8"/>
     </row>
-    <row r="4" ht="40.5" spans="1:13">
+    <row r="4" spans="1:16" ht="40.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1343,16 +732,18 @@
         <v>42700</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="J4" s="12">
+        <v>42700</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" ht="40.5" spans="1:13">
+    <row r="5" spans="1:16" ht="40.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1378,16 +769,18 @@
         <v>42700</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="J5" s="12">
+        <v>42700</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" ht="27" spans="1:13">
+    <row r="6" spans="1:16" ht="27">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1413,16 +806,18 @@
         <v>42700</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="J6" s="6">
+        <v>42700</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" ht="27" spans="1:13">
+    <row r="7" spans="1:16" ht="27">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1448,16 +843,18 @@
         <v>42700</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="J7" s="6">
+        <v>42700</v>
+      </c>
       <c r="K7" s="9"/>
       <c r="L7" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" ht="27" spans="1:16">
+    <row r="8" spans="1:16" ht="27">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1483,18 +880,20 @@
         <v>42700</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="9"/>
+        <v>24</v>
+      </c>
+      <c r="J8" s="6">
+        <v>42700</v>
+      </c>
       <c r="K8" s="9"/>
       <c r="L8" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M8" s="8"/>
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" ht="27" spans="1:16">
+    <row r="9" spans="1:16" ht="27">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1520,18 +919,20 @@
         <v>42700</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="J9" s="6">
+        <v>42700</v>
+      </c>
       <c r="K9" s="9"/>
       <c r="L9" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M9" s="8"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" ht="27" spans="1:16">
+    <row r="10" spans="1:16" ht="27">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1557,18 +958,20 @@
         <v>42700</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="9"/>
+        <v>26</v>
+      </c>
+      <c r="J10" s="6">
+        <v>42700</v>
+      </c>
       <c r="K10" s="9"/>
       <c r="L10" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M10" s="8"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" ht="27" spans="1:16">
+    <row r="11" spans="1:16" ht="27">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1594,18 +997,22 @@
         <v>42700</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="J11" s="6">
+        <v>42700</v>
+      </c>
       <c r="K11" s="9"/>
       <c r="L11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="8"/>
+        <v>37</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>39</v>
+      </c>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" ht="27" spans="1:16">
+    <row r="12" spans="1:16" ht="27">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1631,18 +1038,20 @@
         <v>42700</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J12" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="J12" s="6">
+        <v>42700</v>
+      </c>
       <c r="K12" s="9"/>
       <c r="L12" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M12" s="8"/>
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" ht="27" spans="1:16">
+    <row r="13" spans="1:16" ht="27">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1668,18 +1077,20 @@
         <v>42700</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="8"/>
+        <v>29</v>
+      </c>
+      <c r="J13" s="13">
+        <v>42700</v>
+      </c>
       <c r="K13" s="8"/>
       <c r="L13" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M13" s="8"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" ht="27" spans="1:16">
+    <row r="14" spans="1:16" ht="27">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1690,33 +1101,35 @@
         <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="5">
+        <v>42700</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="5">
-        <v>42700</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="13">
+        <v>42700</v>
+      </c>
       <c r="K14" s="8"/>
       <c r="L14" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M14" s="8"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" ht="40.5" spans="1:13">
+    <row r="15" spans="1:16" ht="40.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1727,31 +1140,33 @@
         <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="5">
+        <v>42700</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="5">
-        <v>42700</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="13">
+        <v>42700</v>
+      </c>
       <c r="K15" s="8"/>
       <c r="L15" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" ht="27" spans="1:13">
+    <row r="16" spans="1:16" ht="27">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1762,14 +1177,14 @@
         <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1777,16 +1192,18 @@
         <v>42700</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="J16" s="13">
+        <v>42700</v>
+      </c>
       <c r="K16" s="8"/>
       <c r="L16" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" ht="27" spans="1:13">
+    <row r="17" spans="1:13" ht="27">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1797,14 +1214,14 @@
         <v>14</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>18</v>
       </c>
@@ -1812,52 +1229,48 @@
         <v>42700</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="J17" s="13">
+        <v>42700</v>
+      </c>
       <c r="K17" s="8"/>
       <c r="L17" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M17" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
   <si>
     <t>序号</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>review时间</t>
+  </si>
+  <si>
+    <t>review人</t>
   </si>
   <si>
     <t>状态</t>
@@ -79,10 +82,21 @@
     <t>蒙层没有</t>
   </si>
   <si>
+    <t>汤健</t>
+  </si>
+  <si>
+    <t>review完了</t>
+  </si>
+  <si>
     <t>.main 的宽度改成width：550px
 margin-left: -275px;</t>
   </si>
   <si>
+    <t>登录注册标签和内容块有间隙，没有加效果
+    transition: all .5s ease 0s;
+    -webkit-transition: all .5s ease 0s;</t>
+  </si>
+  <si>
     <t>&lt;link rel="icon" href="../../css/img/logo.png" type="image/x-icon"&gt;
 图片改掉</t>
   </si>
@@ -103,6 +117,9 @@
   </si>
   <si>
     <t>切换到登录模块，内容突出来了</t>
+  </si>
+  <si>
+    <t>写在js里控制</t>
   </si>
   <si>
     <t>© 2016 苏州嗨吼网络科技有限公司的版权标志改成：&amp;copy;</t>
@@ -132,27 +149,19 @@
   </si>
   <si>
     <t>opacity: 100%;改成opacity: 1;</t>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录注册标签和内容块有间隙，没有加效果
-    transition: all .5s ease 0s;
-    -webkit-transition: all .5s ease 0s;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>写在js里控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +175,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,24 +334,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149998474074526"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -227,9 +554,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -258,29 +827,76 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -571,11 +1187,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -587,11 +1204,13 @@
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="56.5" style="1" customWidth="1"/>
-    <col min="10" max="11" width="13.75" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="10" max="12" width="13.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="13.125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -631,646 +1250,735 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" ht="27">
+    <row r="2" ht="27" spans="1:14">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="5">
         <v>42700</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="6">
-        <v>42700</v>
-      </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="J2" s="5">
+        <v>42700</v>
+      </c>
+      <c r="K2" s="5">
+        <v>42700</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="27">
+    <row r="3" ht="27" spans="1:14">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H3" s="5">
         <v>42700</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="12">
-        <v>42700</v>
-      </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="8"/>
+        <v>23</v>
+      </c>
+      <c r="J3" s="8">
+        <v>42700</v>
+      </c>
+      <c r="K3" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="40.5">
+    <row r="4" ht="40.5" spans="1:14">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" s="5">
         <v>42700</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="12">
-        <v>42700</v>
-      </c>
-      <c r="K4" s="7"/>
-      <c r="L4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="8"/>
+        <v>24</v>
+      </c>
+      <c r="J4" s="8">
+        <v>42700</v>
+      </c>
+      <c r="K4" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:16" ht="40.5">
+    <row r="5" ht="40.5" spans="1:14">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" s="5">
         <v>42700</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="8">
+        <v>42700</v>
+      </c>
+      <c r="K5" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="12">
-        <v>42700</v>
-      </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:16" ht="27">
+    <row r="6" ht="27" spans="1:14">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" s="5">
         <v>42700</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="5">
+        <v>42700</v>
+      </c>
+      <c r="K6" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="6">
-        <v>42700</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="27">
+    <row r="7" ht="27" spans="1:14">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H7" s="5">
         <v>42700</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="6">
-        <v>42700</v>
-      </c>
-      <c r="K7" s="9"/>
-      <c r="L7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="8"/>
+      <c r="I7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="5">
+        <v>42700</v>
+      </c>
+      <c r="K7" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:16" ht="27">
+    <row r="8" ht="27" spans="1:17">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H8" s="5">
         <v>42700</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="6">
-        <v>42700</v>
-      </c>
-      <c r="K8" s="9"/>
-      <c r="L8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="I8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="5">
+        <v>42700</v>
+      </c>
+      <c r="K8" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N8" s="9"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:16" ht="27">
+    <row r="9" ht="27" spans="1:17">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H9" s="5">
         <v>42700</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="6">
-        <v>42700</v>
-      </c>
-      <c r="K9" s="9"/>
-      <c r="L9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M9" s="8"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="I9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" s="5">
+        <v>42700</v>
+      </c>
+      <c r="K9" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="9"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:16" ht="27">
+    <row r="10" ht="27" spans="1:17">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H10" s="5">
         <v>42700</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="6">
-        <v>42700</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="I10" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="5">
+        <v>42700</v>
+      </c>
+      <c r="K10" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:16" ht="27">
+    <row r="11" ht="27" spans="1:17">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H11" s="5">
         <v>42700</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="6">
-        <v>42700</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+      <c r="I11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="5">
+        <v>42700</v>
+      </c>
+      <c r="K11" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:16" ht="27">
+    <row r="12" ht="27" spans="1:17">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" s="5">
         <v>42700</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="6">
-        <v>42700</v>
-      </c>
-      <c r="K12" s="9"/>
-      <c r="L12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M12" s="8"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="5">
+        <v>42700</v>
+      </c>
+      <c r="K12" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" s="9"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:16" ht="27">
+    <row r="13" ht="27" spans="1:17">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H13" s="5">
         <v>42700</v>
       </c>
-      <c r="I13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="13">
-        <v>42700</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="8"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
+      <c r="I13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="12">
+        <v>42700</v>
+      </c>
+      <c r="K13" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:16" ht="27">
+    <row r="14" ht="27" spans="1:17">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" s="5">
         <v>42700</v>
       </c>
-      <c r="I14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="13">
-        <v>42700</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M14" s="8"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
+      <c r="I14" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="12">
+        <v>42700</v>
+      </c>
+      <c r="K14" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N14" s="9"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:16" ht="40.5">
+    <row r="15" ht="40.5" spans="1:14">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H15" s="5">
         <v>42700</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J15" s="13">
-        <v>42700</v>
-      </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M15" s="8"/>
+      <c r="I15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="12">
+        <v>42700</v>
+      </c>
+      <c r="K15" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:16" ht="27">
+    <row r="16" ht="27" spans="1:14">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H16" s="5">
         <v>42700</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="13">
-        <v>42700</v>
-      </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M16" s="8"/>
+      <c r="I16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J16" s="12">
+        <v>42700</v>
+      </c>
+      <c r="K16" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:13" ht="27">
+    <row r="17" ht="27" spans="1:14">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H17" s="5">
         <v>42700</v>
       </c>
-      <c r="I17" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J17" s="13">
-        <v>42700</v>
-      </c>
-      <c r="K17" s="8"/>
-      <c r="L17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M17" s="8"/>
+      <c r="I17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="12">
+        <v>42700</v>
+      </c>
+      <c r="K17" s="8">
+        <v>42700</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>序号</t>
   </si>
@@ -149,6 +149,35 @@
   </si>
   <si>
     <t>opacity: 100%;改成opacity: 1;</t>
+  </si>
+  <si>
+    <t>工长店铺详情页面</t>
+  </si>
+  <si>
+    <t>工长店铺详情</t>
+  </si>
+  <si>
+    <t>foreman_selfshop</t>
+  </si>
+  <si>
+    <t>foreman_selfshop.html和css名字改掉，并移动到v_shopdetails文件夹下面</t>
+  </si>
+  <si>
+    <t>轮播图不能点击</t>
+  </si>
+  <si>
+    <t>标签不一样大</t>
+  </si>
+  <si>
+    <t>上下间距，
+保证收藏
+、分享和轮播图平行</t>
+  </si>
+  <si>
+    <t>查看地图、立即预约、收藏、分享加css效果</t>
+  </si>
+  <si>
+    <t>从业经历、装修小区内容加间距</t>
   </si>
 </sst>
 </file>
@@ -156,10 +185,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -176,25 +205,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,61 +218,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -275,6 +233,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -283,15 +294,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,14 +326,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,13 +375,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -364,169 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,45 +580,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,7 +614,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,6 +642,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -660,46 +689,49 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -708,101 +740,98 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,11 +868,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -899,6 +931,95 @@
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>400050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7439025" y="6829425"/>
+          <a:ext cx="609600" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3171190</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1171575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="7191375"/>
+          <a:ext cx="3114040" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1189,18 +1310,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="17.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="56.5" style="1" customWidth="1"/>
@@ -1756,7 +1878,7 @@
       <c r="I13" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="5">
         <v>42700</v>
       </c>
       <c r="K13" s="8">
@@ -1800,7 +1922,7 @@
       <c r="I14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="5">
         <v>42700</v>
       </c>
       <c r="K14" s="8">
@@ -1841,10 +1963,10 @@
       <c r="H15" s="5">
         <v>42700</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="5">
         <v>42700</v>
       </c>
       <c r="K15" s="8">
@@ -1883,10 +2005,10 @@
       <c r="H16" s="5">
         <v>42700</v>
       </c>
-      <c r="I16" s="13" t="s">
+      <c r="I16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="5">
         <v>42700</v>
       </c>
       <c r="K16" s="8">
@@ -1928,7 +2050,7 @@
       <c r="I17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="5">
         <v>42700</v>
       </c>
       <c r="K17" s="8">
@@ -1941,11 +2063,424 @@
         <v>22</v>
       </c>
       <c r="N17" s="9"/>
+    </row>
+    <row r="18" ht="27" spans="1:14">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" ht="36" customHeight="1" spans="1:14">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" ht="96" customHeight="1" spans="1:14">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
   <si>
     <t>序号</t>
   </si>
@@ -184,13 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,151 +198,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,204 +219,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -583,251 +253,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -878,63 +306,16 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -956,7 +337,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -998,7 +379,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1308,12 +689,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1332,7 +712,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:14">
+    <row r="2" spans="1:17" ht="27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1418,7 +798,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" ht="27" spans="1:14">
+    <row r="3" spans="1:17" ht="27">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1460,7 +840,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" ht="40.5" spans="1:14">
+    <row r="4" spans="1:17" ht="40.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1502,7 +882,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" ht="40.5" spans="1:14">
+    <row r="5" spans="1:17" ht="40.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1544,7 +924,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" ht="27" spans="1:14">
+    <row r="6" spans="1:17" ht="27">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1586,7 +966,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" ht="27" spans="1:14">
+    <row r="7" spans="1:17" ht="27">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1628,7 +1008,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" ht="27" spans="1:17">
+    <row r="8" spans="1:17" ht="27">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1672,7 +1052,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" ht="27" spans="1:17">
+    <row r="9" spans="1:17" ht="27">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1716,7 +1096,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" ht="27" spans="1:17">
+    <row r="10" spans="1:17" ht="27">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1760,7 +1140,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" ht="27" spans="1:17">
+    <row r="11" spans="1:17" ht="27">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1806,7 +1186,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" ht="27" spans="1:17">
+    <row r="12" spans="1:17" ht="27">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1850,7 +1230,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" ht="27" spans="1:17">
+    <row r="13" spans="1:17" ht="27">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1894,7 +1274,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" ht="27" spans="1:17">
+    <row r="14" spans="1:17" ht="27">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1938,7 +1318,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" ht="40.5" spans="1:14">
+    <row r="15" spans="1:17" ht="40.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1980,7 +1360,7 @@
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" ht="27" spans="1:14">
+    <row r="16" spans="1:17" ht="27">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2022,7 +1402,7 @@
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" ht="27" spans="1:14">
+    <row r="17" spans="1:14" ht="27">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2064,7 +1444,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" ht="27" spans="1:14">
+    <row r="18" spans="1:14" ht="27">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2092,8 +1472,12 @@
       <c r="I18" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="8"/>
+      <c r="J18" s="5">
+        <v>42702</v>
+      </c>
+      <c r="K18" s="8">
+        <v>42702</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="3"/>
       <c r="N18" s="9"/>
@@ -2126,13 +1510,17 @@
       <c r="I19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="5">
+        <v>42702</v>
+      </c>
+      <c r="K19" s="5">
+        <v>42702</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" ht="36" customHeight="1" spans="1:14">
+    <row r="20" spans="1:14" ht="36" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2160,13 +1548,17 @@
       <c r="I20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="5">
+        <v>42702</v>
+      </c>
+      <c r="K20" s="5">
+        <v>42702</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" ht="96" customHeight="1" spans="1:14">
+    <row r="21" spans="1:14" ht="96" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2194,8 +1586,12 @@
       <c r="I21" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="J21" s="5">
+        <v>42702</v>
+      </c>
+      <c r="K21" s="5">
+        <v>42702</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2228,8 +1624,12 @@
       <c r="I22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="J22" s="5">
+        <v>42702</v>
+      </c>
+      <c r="K22" s="5">
+        <v>42702</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2262,8 +1662,12 @@
       <c r="I23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="J23" s="5">
+        <v>42702</v>
+      </c>
+      <c r="K23" s="5">
+        <v>42702</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -2477,43 +1881,37 @@
       <c r="N36" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>序号</t>
   </si>
@@ -184,7 +184,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,13 +204,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,18 +363,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -253,13 +583,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,22 +872,66 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -337,7 +953,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -379,7 +995,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -689,11 +1305,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -712,7 +1329,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -756,7 +1373,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27">
+    <row r="2" ht="27" spans="1:14">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -798,7 +1415,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="27">
+    <row r="3" ht="27" spans="1:14">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -840,7 +1457,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="40.5">
+    <row r="4" ht="40.5" spans="1:14">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -882,7 +1499,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="40.5">
+    <row r="5" ht="40.5" spans="1:14">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -924,7 +1541,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="27">
+    <row r="6" ht="27" spans="1:14">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -966,7 +1583,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="27">
+    <row r="7" ht="27" spans="1:14">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1008,7 +1625,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="27">
+    <row r="8" ht="27" spans="1:17">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1052,7 +1669,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="27">
+    <row r="9" ht="27" spans="1:17">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1096,7 +1713,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" ht="27">
+    <row r="10" ht="27" spans="1:17">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1140,7 +1757,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" ht="27">
+    <row r="11" ht="27" spans="1:17">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1186,7 +1803,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" ht="27">
+    <row r="12" ht="27" spans="1:17">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1230,7 +1847,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="27">
+    <row r="13" ht="27" spans="1:17">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1274,7 +1891,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" ht="27">
+    <row r="14" ht="27" spans="1:17">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1318,7 +1935,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="40.5">
+    <row r="15" ht="40.5" spans="1:14">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1360,7 +1977,7 @@
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="27">
+    <row r="16" ht="27" spans="1:14">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1402,7 +2019,7 @@
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="27">
+    <row r="17" ht="27" spans="1:14">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1444,7 +2061,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="27">
+    <row r="18" ht="27" spans="1:14">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1469,7 +2086,7 @@
       <c r="H18" s="5">
         <v>42702</v>
       </c>
-      <c r="I18" s="13" t="s">
+      <c r="I18" s="12" t="s">
         <v>45</v>
       </c>
       <c r="J18" s="5">
@@ -1478,8 +2095,12 @@
       <c r="K18" s="8">
         <v>42702</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="3"/>
+      <c r="L18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N18" s="9"/>
     </row>
     <row r="19" spans="1:14">
@@ -1516,11 +2137,15 @@
       <c r="K19" s="5">
         <v>42702</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="L19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="36" customHeight="1">
+    <row r="20" ht="36" customHeight="1" spans="1:14">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1554,11 +2179,15 @@
       <c r="K20" s="5">
         <v>42702</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+      <c r="L20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="96" customHeight="1">
+    <row r="21" ht="96" customHeight="1" spans="1:14">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1583,7 +2212,7 @@
       <c r="H21" s="5">
         <v>42702</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="13" t="s">
         <v>48</v>
       </c>
       <c r="J21" s="5">
@@ -1592,8 +2221,12 @@
       <c r="K21" s="5">
         <v>42702</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+      <c r="L21" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14">
@@ -1630,8 +2263,12 @@
       <c r="K22" s="5">
         <v>42702</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+      <c r="L22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14">
@@ -1668,8 +2305,12 @@
       <c r="K23" s="5">
         <v>42702</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+      <c r="L23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14">
@@ -1881,37 +2522,43 @@
       <c r="N36" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>序号</t>
   </si>
@@ -178,6 +178,27 @@
   </si>
   <si>
     <t>从业经历、装修小区内容加间距</t>
+  </si>
+  <si>
+    <t>虚拟现实页面</t>
+  </si>
+  <si>
+    <t>虚拟现实卡片</t>
+  </si>
+  <si>
+    <t>v_pagenumber</t>
+  </si>
+  <si>
+    <t>移动到common里面去，他是公共的，名字改掉</t>
+  </si>
+  <si>
+    <t>开头的筛选提出来，放到common里面去，他也是公共的</t>
+  </si>
+  <si>
+    <t>建筑面积120㎡，把建筑面积、120、㎡拆开，方便后期填充数据，建筑面积改成建筑面积：</t>
+  </si>
+  <si>
+    <t>现代简约风格下面的虚线改成细线并且和文字齐平，颜色改成灰色</t>
   </si>
 </sst>
 </file>
@@ -185,10 +206,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -205,48 +226,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,8 +240,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,7 +264,51 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,30 +331,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,15 +361,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,13 +396,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +498,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,151 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,41 +605,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,6 +631,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,25 +674,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,10 +710,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,133 +722,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1307,10 +1328,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2314,64 +2335,144 @@
       <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" s="5">
+        <v>42702</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="5">
+        <v>42702</v>
+      </c>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
+    <row r="26" ht="27" spans="1:14">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H26" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="5">
+        <v>42702</v>
+      </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H27" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="5">
+        <v>42702</v>
+      </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -2520,6 +2621,646 @@
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="1:14">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="1:14">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="1:14">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="1:14">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -205,13 +205,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,151 +219,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,204 +240,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.14993743705557422"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -604,251 +274,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -896,63 +324,16 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -974,7 +355,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1016,7 +397,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1326,12 +707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1350,7 +730,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:14">
+    <row r="2" spans="1:17" ht="27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1436,7 +816,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" ht="27" spans="1:14">
+    <row r="3" spans="1:17" ht="27">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1478,7 +858,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" ht="40.5" spans="1:14">
+    <row r="4" spans="1:17" ht="40.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1520,7 +900,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" ht="40.5" spans="1:14">
+    <row r="5" spans="1:17" ht="40.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1562,7 +942,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" ht="27" spans="1:14">
+    <row r="6" spans="1:17" ht="27">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1604,7 +984,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" ht="27" spans="1:14">
+    <row r="7" spans="1:17" ht="27">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1646,7 +1026,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" ht="27" spans="1:17">
+    <row r="8" spans="1:17" ht="27">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1690,7 +1070,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" ht="27" spans="1:17">
+    <row r="9" spans="1:17" ht="27">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1734,7 +1114,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" ht="27" spans="1:17">
+    <row r="10" spans="1:17" ht="27">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1778,7 +1158,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" ht="27" spans="1:17">
+    <row r="11" spans="1:17" ht="27">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1824,7 +1204,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" ht="27" spans="1:17">
+    <row r="12" spans="1:17" ht="27">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1868,7 +1248,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" ht="27" spans="1:17">
+    <row r="13" spans="1:17" ht="27">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1912,7 +1292,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" ht="27" spans="1:17">
+    <row r="14" spans="1:17" ht="27">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1956,7 +1336,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" ht="40.5" spans="1:14">
+    <row r="15" spans="1:17" ht="40.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1998,7 +1378,7 @@
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" ht="27" spans="1:14">
+    <row r="16" spans="1:17" ht="27">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2040,7 +1420,7 @@
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" ht="27" spans="1:14">
+    <row r="17" spans="1:14" ht="27">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2082,7 +1462,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" ht="27" spans="1:14">
+    <row r="18" spans="1:14" ht="27">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2166,7 +1546,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" ht="36" customHeight="1" spans="1:14">
+    <row r="20" spans="1:14" ht="36" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2208,7 +1588,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" ht="96" customHeight="1" spans="1:14">
+    <row r="21" spans="1:14" ht="96" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2365,7 +1745,9 @@
       <c r="J24" s="5">
         <v>42702</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="5">
+        <v>42702</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
@@ -2401,12 +1783,14 @@
       <c r="J25" s="5">
         <v>42702</v>
       </c>
-      <c r="K25" s="3"/>
+      <c r="K25" s="5">
+        <v>42702</v>
+      </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" ht="27" spans="1:14">
+    <row r="26" spans="1:14" ht="27">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2437,7 +1821,9 @@
       <c r="J26" s="5">
         <v>42702</v>
       </c>
-      <c r="K26" s="3"/>
+      <c r="K26" s="5">
+        <v>42702</v>
+      </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
@@ -2473,7 +1859,9 @@
       <c r="J27" s="5">
         <v>42702</v>
       </c>
-      <c r="K27" s="3"/>
+      <c r="K27" s="5">
+        <v>42702</v>
+      </c>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
@@ -3263,43 +2651,37 @@
       <c r="N76" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>序号</t>
   </si>
@@ -199,13 +199,37 @@
   </si>
   <si>
     <t>现代简约风格下面的虚线改成细线并且和文字齐平，颜色改成灰色</t>
+  </si>
+  <si>
+    <t>装修订单详情页面</t>
+  </si>
+  <si>
+    <t>整个版面</t>
+  </si>
+  <si>
+    <t>v_orderdetail</t>
+  </si>
+  <si>
+    <t>导航栏加回到顶部</t>
+  </si>
+  <si>
+    <t>进场准备往下的内容往左边偏一点和工长头像对齐</t>
+  </si>
+  <si>
+    <t>检查数据是否和静态内容重合，不方便后期填充数据</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,13 +243,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,18 +402,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="0" tint="-0.149937437055574"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -274,9 +622,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -324,16 +914,63 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -355,7 +992,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -397,7 +1034,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -707,11 +1344,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -730,7 +1368,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -774,7 +1412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27">
+    <row r="2" ht="27" spans="1:14">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -816,7 +1454,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="27">
+    <row r="3" ht="27" spans="1:14">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -858,7 +1496,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="40.5">
+    <row r="4" ht="40.5" spans="1:14">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -900,7 +1538,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="40.5">
+    <row r="5" ht="40.5" spans="1:14">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -942,7 +1580,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="27">
+    <row r="6" ht="27" spans="1:14">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -984,7 +1622,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="27">
+    <row r="7" ht="27" spans="1:14">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1026,7 +1664,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="27">
+    <row r="8" ht="27" spans="1:17">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1070,7 +1708,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="27">
+    <row r="9" ht="27" spans="1:17">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1114,7 +1752,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" ht="27">
+    <row r="10" ht="27" spans="1:17">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1158,7 +1796,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" ht="27">
+    <row r="11" ht="27" spans="1:17">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1204,7 +1842,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" ht="27">
+    <row r="12" ht="27" spans="1:17">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1248,7 +1886,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="27">
+    <row r="13" ht="27" spans="1:17">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1292,7 +1930,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" ht="27">
+    <row r="14" ht="27" spans="1:17">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1336,7 +1974,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="40.5">
+    <row r="15" ht="40.5" spans="1:14">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1378,7 +2016,7 @@
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="27">
+    <row r="16" ht="27" spans="1:14">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1420,7 +2058,7 @@
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="27">
+    <row r="17" ht="27" spans="1:14">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1462,7 +2100,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="27">
+    <row r="18" ht="27" spans="1:14">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1546,7 +2184,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="36" customHeight="1">
+    <row r="20" ht="36" customHeight="1" spans="1:14">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1588,7 +2226,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="96" customHeight="1">
+    <row r="21" ht="96" customHeight="1" spans="1:14">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1790,7 +2428,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="27">
+    <row r="26" ht="27" spans="1:14">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1867,48 +2505,108 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="5">
+        <v>42702</v>
+      </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="5">
+        <v>42702</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H30" s="5">
+        <v>42702</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="5">
+        <v>42702</v>
+      </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2651,37 +3349,43 @@
       <c r="N76" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="64">
   <si>
     <t>序号</t>
   </si>
@@ -223,13 +223,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,151 +237,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,204 +258,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.14990691854609822"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -622,251 +292,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -914,63 +342,16 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -992,7 +373,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1034,7 +415,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1344,12 +725,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1368,7 +748,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1412,7 +792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:14">
+    <row r="2" spans="1:17" ht="27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1454,7 +834,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" ht="27" spans="1:14">
+    <row r="3" spans="1:17" ht="27">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1496,7 +876,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" ht="40.5" spans="1:14">
+    <row r="4" spans="1:17" ht="40.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1538,7 +918,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" ht="40.5" spans="1:14">
+    <row r="5" spans="1:17" ht="40.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1580,7 +960,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" ht="27" spans="1:14">
+    <row r="6" spans="1:17" ht="27">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1622,7 +1002,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" ht="27" spans="1:14">
+    <row r="7" spans="1:17" ht="27">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1664,7 +1044,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" ht="27" spans="1:17">
+    <row r="8" spans="1:17" ht="27">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1708,7 +1088,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" ht="27" spans="1:17">
+    <row r="9" spans="1:17" ht="27">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1752,7 +1132,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" ht="27" spans="1:17">
+    <row r="10" spans="1:17" ht="27">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1796,7 +1176,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" ht="27" spans="1:17">
+    <row r="11" spans="1:17" ht="27">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1842,7 +1222,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" ht="27" spans="1:17">
+    <row r="12" spans="1:17" ht="27">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1886,7 +1266,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" ht="27" spans="1:17">
+    <row r="13" spans="1:17" ht="27">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1930,7 +1310,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" ht="27" spans="1:17">
+    <row r="14" spans="1:17" ht="27">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1974,7 +1354,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" ht="40.5" spans="1:14">
+    <row r="15" spans="1:17" ht="40.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2016,7 +1396,7 @@
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" ht="27" spans="1:14">
+    <row r="16" spans="1:17" ht="27">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2058,7 +1438,7 @@
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" ht="27" spans="1:14">
+    <row r="17" spans="1:14" ht="27">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2100,7 +1480,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" ht="27" spans="1:14">
+    <row r="18" spans="1:14" ht="27">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2184,7 +1564,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" ht="36" customHeight="1" spans="1:14">
+    <row r="20" spans="1:14" ht="36" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2226,7 +1606,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" ht="96" customHeight="1" spans="1:14">
+    <row r="21" spans="1:14" ht="96" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2428,7 +1808,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" ht="27" spans="1:14">
+    <row r="26" spans="1:14" ht="27">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2535,7 +1915,9 @@
       <c r="J28" s="5">
         <v>42702</v>
       </c>
-      <c r="K28" s="3"/>
+      <c r="K28" s="5">
+        <v>42703</v>
+      </c>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
@@ -2571,7 +1953,9 @@
       <c r="J29" s="5">
         <v>42702</v>
       </c>
-      <c r="K29" s="3"/>
+      <c r="K29" s="5">
+        <v>42702</v>
+      </c>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -2607,7 +1991,9 @@
       <c r="J30" s="5">
         <v>42702</v>
       </c>
-      <c r="K30" s="3"/>
+      <c r="K30" s="5">
+        <v>42702</v>
+      </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -3349,43 +2735,37 @@
       <c r="N76" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>序号</t>
   </si>
@@ -223,7 +223,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,13 +243,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,18 +402,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14990691854609822"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -292,9 +622,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -342,16 +914,63 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -373,7 +992,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -415,7 +1034,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -725,11 +1344,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -748,7 +1368,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -792,7 +1412,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27">
+    <row r="2" ht="27" spans="1:14">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -834,7 +1454,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="27">
+    <row r="3" ht="27" spans="1:14">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -876,7 +1496,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="40.5">
+    <row r="4" ht="40.5" spans="1:14">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -918,7 +1538,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="40.5">
+    <row r="5" ht="40.5" spans="1:14">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -960,7 +1580,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="27">
+    <row r="6" ht="27" spans="1:14">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1002,7 +1622,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="27">
+    <row r="7" ht="27" spans="1:14">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1044,7 +1664,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="27">
+    <row r="8" ht="27" spans="1:17">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1088,7 +1708,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="27">
+    <row r="9" ht="27" spans="1:17">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1132,7 +1752,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" ht="27">
+    <row r="10" ht="27" spans="1:17">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1176,7 +1796,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" ht="27">
+    <row r="11" ht="27" spans="1:17">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1222,7 +1842,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" ht="27">
+    <row r="12" ht="27" spans="1:17">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1266,7 +1886,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="27">
+    <row r="13" ht="27" spans="1:17">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1310,7 +1930,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" ht="27">
+    <row r="14" ht="27" spans="1:17">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1354,7 +1974,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="40.5">
+    <row r="15" ht="40.5" spans="1:14">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1396,7 +2016,7 @@
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="27">
+    <row r="16" ht="27" spans="1:14">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1438,7 +2058,7 @@
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="27">
+    <row r="17" ht="27" spans="1:14">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1480,7 +2100,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="27">
+    <row r="18" ht="27" spans="1:14">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1564,7 +2184,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="36" customHeight="1">
+    <row r="20" ht="36" customHeight="1" spans="1:14">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1606,7 +2226,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="96" customHeight="1">
+    <row r="21" ht="96" customHeight="1" spans="1:14">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1766,8 +2386,12 @@
       <c r="K24" s="5">
         <v>42702</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+      <c r="L24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14">
@@ -1804,11 +2428,15 @@
       <c r="K25" s="5">
         <v>42702</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="L25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="27">
+    <row r="26" ht="27" spans="1:14">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1842,8 +2470,12 @@
       <c r="K26" s="5">
         <v>42702</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
+      <c r="L26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14">
@@ -1880,8 +2512,12 @@
       <c r="K27" s="5">
         <v>42702</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
+      <c r="L27" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14">
@@ -1918,8 +2554,12 @@
       <c r="K28" s="5">
         <v>42703</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
+      <c r="L28" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14">
@@ -1954,10 +2594,14 @@
         <v>42702</v>
       </c>
       <c r="K29" s="5">
-        <v>42702</v>
-      </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
+        <v>42703</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14">
@@ -1992,10 +2636,14 @@
         <v>42702</v>
       </c>
       <c r="K30" s="5">
-        <v>42702</v>
-      </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
+        <v>42703</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14">
@@ -2735,37 +3383,43 @@
       <c r="N76" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>序号</t>
   </si>
@@ -217,6 +217,27 @@
   </si>
   <si>
     <t>检查数据是否和静态内容重合，不方便后期填充数据</t>
+  </si>
+  <si>
+    <t>工长店铺页面</t>
+  </si>
+  <si>
+    <t>工长店铺内容</t>
+  </si>
+  <si>
+    <t>foreman_shop</t>
+  </si>
+  <si>
+    <t>评分后面的分靠右对齐</t>
+  </si>
+  <si>
+    <t>店名和后面的标签不平行</t>
+  </si>
+  <si>
+    <t>进入店铺和收藏的效果改掉参考www.heeyhome.com</t>
+  </si>
+  <si>
+    <t>擅长风格: 现代简约，新中式风格的标签改成框</t>
   </si>
 </sst>
 </file>
@@ -224,10 +245,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -243,15 +264,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -265,6 +287,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -273,7 +303,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,17 +323,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -318,30 +340,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,6 +358,29 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,14 +403,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -420,13 +441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,13 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,7 +489,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,13 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,7 +537,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,7 +561,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,79 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -656,7 +677,27 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -667,15 +708,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -709,17 +741,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -728,145 +749,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,6 +1064,48 @@
         <a:xfrm>
           <a:off x="7353300" y="7191375"/>
           <a:ext cx="3114040" cy="1123950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3181350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>4191635</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="10477500"/>
+          <a:ext cx="1010285" cy="438150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1348,8 +1411,8 @@
   <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2647,64 +2710,144 @@
       <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="5">
+        <v>42703</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="5">
+        <v>42703</v>
+      </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H32" s="5">
+        <v>42703</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="5">
+        <v>42703</v>
+      </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
+    <row r="33" ht="45" customHeight="1" spans="1:14">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="5">
+        <v>42703</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="5">
+        <v>42703</v>
+      </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="5">
+        <v>42703</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J34" s="5">
+        <v>42703</v>
+      </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>

--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="71">
   <si>
     <t>序号</t>
   </si>
@@ -244,13 +244,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,151 +258,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,204 +279,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.349986266670736"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.1498764000366222"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -643,251 +313,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -935,63 +363,16 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -1013,7 +394,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1055,7 +436,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1097,7 +478,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1407,12 +788,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1431,7 +811,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:14">
+    <row r="2" spans="1:17" ht="27">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1517,7 +897,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" ht="27" spans="1:14">
+    <row r="3" spans="1:17" ht="27">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1559,7 +939,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" ht="40.5" spans="1:14">
+    <row r="4" spans="1:17" ht="40.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1601,7 +981,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" ht="40.5" spans="1:14">
+    <row r="5" spans="1:17" ht="40.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1643,7 +1023,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" ht="27" spans="1:14">
+    <row r="6" spans="1:17" ht="27">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1685,7 +1065,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" ht="27" spans="1:14">
+    <row r="7" spans="1:17" ht="27">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1727,7 +1107,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" ht="27" spans="1:17">
+    <row r="8" spans="1:17" ht="27">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1771,7 +1151,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" ht="27" spans="1:17">
+    <row r="9" spans="1:17" ht="27">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1815,7 +1195,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" ht="27" spans="1:17">
+    <row r="10" spans="1:17" ht="27">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1859,7 +1239,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" ht="27" spans="1:17">
+    <row r="11" spans="1:17" ht="27">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1905,7 +1285,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" ht="27" spans="1:17">
+    <row r="12" spans="1:17" ht="27">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1949,7 +1329,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" ht="27" spans="1:17">
+    <row r="13" spans="1:17" ht="27">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1993,7 +1373,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" ht="27" spans="1:17">
+    <row r="14" spans="1:17" ht="27">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2037,7 +1417,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" ht="40.5" spans="1:14">
+    <row r="15" spans="1:17" ht="40.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2079,7 +1459,7 @@
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" ht="27" spans="1:14">
+    <row r="16" spans="1:17" ht="27">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2121,7 +1501,7 @@
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" ht="27" spans="1:14">
+    <row r="17" spans="1:14" ht="27">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2163,7 +1543,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" ht="27" spans="1:14">
+    <row r="18" spans="1:14" ht="27">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2247,7 +1627,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" ht="36" customHeight="1" spans="1:14">
+    <row r="20" spans="1:14" ht="36" customHeight="1">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -2289,7 +1669,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" ht="96" customHeight="1" spans="1:14">
+    <row r="21" spans="1:14" ht="96" customHeight="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -2499,7 +1879,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" ht="27" spans="1:14">
+    <row r="26" spans="1:14" ht="27">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2740,7 +2120,9 @@
       <c r="J31" s="5">
         <v>42703</v>
       </c>
-      <c r="K31" s="3"/>
+      <c r="K31" s="5">
+        <v>42703</v>
+      </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
@@ -2776,12 +2158,14 @@
       <c r="J32" s="5">
         <v>42703</v>
       </c>
-      <c r="K32" s="3"/>
+      <c r="K32" s="5">
+        <v>42703</v>
+      </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" ht="45" customHeight="1" spans="1:14">
+    <row r="33" spans="1:14" ht="45" customHeight="1">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2812,7 +2196,9 @@
       <c r="J33" s="5">
         <v>42703</v>
       </c>
-      <c r="K33" s="3"/>
+      <c r="K33" s="5">
+        <v>42703</v>
+      </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -2848,7 +2234,9 @@
       <c r="J34" s="5">
         <v>42703</v>
       </c>
-      <c r="K34" s="3"/>
+      <c r="K34" s="5">
+        <v>42703</v>
+      </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
@@ -3526,43 +2914,37 @@
       <c r="N76" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89">
   <si>
     <t>序号</t>
   </si>
@@ -238,13 +238,73 @@
   </si>
   <si>
     <t>擅长风格: 现代简约，新中式风格的标签改成框</t>
+  </si>
+  <si>
+    <t>工长个人中心</t>
+  </si>
+  <si>
+    <t>我的主页</t>
+  </si>
+  <si>
+    <t>customer_first</t>
+  </si>
+  <si>
+    <t>姚红</t>
+  </si>
+  <si>
+    <t>往右移动25px</t>
+  </si>
+  <si>
+    <t>实线改成虚线</t>
+  </si>
+  <si>
+    <t>个人资料</t>
+  </si>
+  <si>
+    <t>personal_data</t>
+  </si>
+  <si>
+    <t>头像照片模块不显示</t>
+  </si>
+  <si>
+    <t>我的收藏</t>
+  </si>
+  <si>
+    <t>my_collection</t>
+  </si>
+  <si>
+    <t>我的收藏-店铺实线改虚线，hover上去加效果参考http://gny.ly.com/list?prop=0&amp;src=%E8%8B%8F%E5%B7%9E&amp;label=button&amp;action=index</t>
+  </si>
+  <si>
+    <t>消息中心</t>
+  </si>
+  <si>
+    <t>information_center</t>
+  </si>
+  <si>
+    <t>消息中心实线改虚线</t>
+  </si>
+  <si>
+    <t>安全设置</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>和需求稿不符合，重新查看需求稿，和蔡锴锴沟通</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,13 +318,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,18 +477,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.1498764000366222"/>
+        <fgColor theme="0" tint="-0.149876400036622"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -313,13 +697,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,17 +988,67 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
@@ -394,14 +1070,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7439025" y="6829425"/>
+          <a:off x="7600950" y="6829425"/>
           <a:ext cx="609600" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -436,14 +1112,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7353300" y="7191375"/>
+          <a:off x="7515225" y="7191375"/>
           <a:ext cx="3114040" cy="1123950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -478,15 +1154,57 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10477500" y="10477500"/>
+          <a:off x="10639425" y="10477500"/>
           <a:ext cx="1010285" cy="438150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3333115</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1600200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7600950" y="11210925"/>
+          <a:ext cx="3190240" cy="1552575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -788,11 +1506,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:Q76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -801,7 +1520,7 @@
     <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="56.5" style="1" customWidth="1"/>
@@ -811,7 +1530,7 @@
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:14">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -855,7 +1574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="27">
+    <row r="2" ht="27" spans="1:14">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -897,7 +1616,7 @@
       </c>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="27">
+    <row r="3" ht="27" spans="1:14">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -939,7 +1658,7 @@
       </c>
       <c r="N3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="40.5">
+    <row r="4" ht="40.5" spans="1:14">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -981,7 +1700,7 @@
       </c>
       <c r="N4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="40.5">
+    <row r="5" ht="40.5" spans="1:14">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1023,7 +1742,7 @@
       </c>
       <c r="N5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="27">
+    <row r="6" ht="27" spans="1:14">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1065,7 +1784,7 @@
       </c>
       <c r="N6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="27">
+    <row r="7" ht="27" spans="1:14">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1107,7 +1826,7 @@
       </c>
       <c r="N7" s="9"/>
     </row>
-    <row r="8" spans="1:17" ht="27">
+    <row r="8" ht="27" spans="1:17">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1151,7 +1870,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="27">
+    <row r="9" ht="27" spans="1:17">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1195,7 +1914,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" spans="1:17" ht="27">
+    <row r="10" ht="27" spans="1:17">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1239,7 +1958,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" spans="1:17" ht="27">
+    <row r="11" ht="27" spans="1:17">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1285,7 +2004,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" spans="1:17" ht="27">
+    <row r="12" ht="27" spans="1:17">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1329,7 +2048,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="27">
+    <row r="13" ht="27" spans="1:17">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1373,7 +2092,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" spans="1:17" ht="27">
+    <row r="14" ht="27" spans="1:17">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1417,7 +2136,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="40.5">
+    <row r="15" ht="40.5" spans="1:14">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1459,7 +2178,7 @@
       </c>
       <c r="N15" s="9"/>
     </row>
-    <row r="16" spans="1:17" ht="27">
+    <row r="16" ht="27" spans="1:14">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1501,7 +2220,7 @@
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:14" ht="27">
+    <row r="17" ht="27" spans="1:14">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -1543,7 +2262,7 @@
       </c>
       <c r="N17" s="9"/>
     </row>
-    <row r="18" spans="1:14" ht="27">
+    <row r="18" ht="27" spans="1:14">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1627,7 +2346,7 @@
       </c>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="1:14" ht="36" customHeight="1">
+    <row r="20" ht="36" customHeight="1" spans="1:14">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1669,7 +2388,7 @@
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:14" ht="96" customHeight="1">
+    <row r="21" ht="96" customHeight="1" spans="1:14">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1879,7 +2598,7 @@
       </c>
       <c r="N25" s="3"/>
     </row>
-    <row r="26" spans="1:14" ht="27">
+    <row r="26" ht="27" spans="1:14">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2123,8 +2842,12 @@
       <c r="K31" s="5">
         <v>42703</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
+      <c r="L31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14">
@@ -2161,11 +2884,15 @@
       <c r="K32" s="5">
         <v>42703</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
+      <c r="L32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N32" s="3"/>
     </row>
-    <row r="33" spans="1:14" ht="45" customHeight="1">
+    <row r="33" ht="45" customHeight="1" spans="1:14">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2199,8 +2926,12 @@
       <c r="K33" s="5">
         <v>42703</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
+      <c r="L33" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14">
@@ -2237,20 +2968,42 @@
       <c r="K34" s="5">
         <v>42703</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
+      <c r="L34" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N34" s="3"/>
     </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
+    <row r="35" ht="135" customHeight="1" spans="1:14">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35" s="5">
+        <v>42703</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>75</v>
+      </c>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2258,15 +3011,33 @@
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" s="5">
+        <v>42703</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2274,31 +3045,67 @@
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H37" s="5">
+        <v>42703</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
     </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
+    <row r="38" ht="40.5" spans="1:14">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="5">
+        <v>42703</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -2306,15 +3113,33 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="5">
+        <v>42703</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>85</v>
+      </c>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
@@ -2322,15 +3147,33 @@
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H40" s="5">
+        <v>42703</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -2914,37 +3757,43 @@
       <c r="N76" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/web/指摘.xlsx
+++ b/doc/web/指摘.xlsx
@@ -318,11 +318,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -333,16 +332,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,15 +347,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,6 +385,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -393,9 +439,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,55 +456,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -495,18 +495,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -519,7 +507,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,19 +537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,31 +579,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,7 +597,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,6 +633,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -633,43 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,8 +701,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,17 +748,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -775,26 +795,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -803,10 +803,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,7 +815,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -824,7 +824,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,112 +836,112 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1511,7 +1511,7 @@
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3004,10 +3004,18 @@
       <c r="I35" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
+      <c r="J35" s="5">
+        <v>42703</v>
+      </c>
+      <c r="K35" s="5">
+        <v>42703</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14">
@@ -3038,10 +3046,18 @@
       <c r="I36" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
+      <c r="J36" s="5">
+        <v>42703</v>
+      </c>
+      <c r="K36" s="5">
+        <v>42703</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14">
@@ -3072,10 +3088,18 @@
       <c r="I37" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
+      <c r="J37" s="5">
+        <v>42703</v>
+      </c>
+      <c r="K37" s="5">
+        <v>42703</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N37" s="3"/>
     </row>
     <row r="38" ht="40.5" spans="1:14">
@@ -3106,10 +3130,18 @@
       <c r="I38" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
+      <c r="J38" s="5">
+        <v>42703</v>
+      </c>
+      <c r="K38" s="5">
+        <v>42703</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14">
@@ -3140,10 +3172,18 @@
       <c r="I39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
+      <c r="J39" s="5">
+        <v>42703</v>
+      </c>
+      <c r="K39" s="5">
+        <v>42703</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N39" s="3"/>
     </row>
     <row r="40" spans="1:14">
@@ -3174,10 +3214,18 @@
       <c r="I40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
+      <c r="J40" s="5">
+        <v>42703</v>
+      </c>
+      <c r="K40" s="5">
+        <v>42703</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="N40" s="3"/>
     </row>
     <row r="41" spans="1:14">
